--- a/users.xlsx
+++ b/users.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -444,9 +444,79 @@
         <v>34456789</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>الا نیک</v>
+      </c>
+      <c r="B4" t="str">
+        <v>09397654312</v>
+      </c>
+      <c r="C4" t="str">
+        <v>@Elahe_Nikseresht</v>
+      </c>
+      <c r="D4" t="str">
+        <v>CXzxcvbnm</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>فاطمه صالحی</v>
+      </c>
+      <c r="B5" t="str">
+        <v>09123456789</v>
+      </c>
+      <c r="C5" t="str">
+        <v>@Elahe_Nikseresht</v>
+      </c>
+      <c r="D5" t="str">
+        <v>CX786123456</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>فاطمه صالحی</v>
+      </c>
+      <c r="B6" t="str">
+        <v>09123456789</v>
+      </c>
+      <c r="C6" t="str">
+        <v>@Elahe_Nikseresht</v>
+      </c>
+      <c r="D6" t="str">
+        <v>CX786123456</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>جابر قلی</v>
+      </c>
+      <c r="B7" t="str">
+        <v>09123456789</v>
+      </c>
+      <c r="C7" t="str">
+        <v>@Elahe_Nikseresht</v>
+      </c>
+      <c r="D7" t="str">
+        <v>CX786123456</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>ایلیاد مهماندوست</v>
+      </c>
+      <c r="B8" t="str">
+        <v>09171111111</v>
+      </c>
+      <c r="C8" t="str">
+        <v>@Elahe_Nikseresht</v>
+      </c>
+      <c r="D8" t="str">
+        <v>CX786111111</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D8"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/users.xlsx
+++ b/users.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -514,9 +514,107 @@
         <v>CX786111111</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>بهروز ادیبان</v>
+      </c>
+      <c r="B9" t="str">
+        <v>09178324428</v>
+      </c>
+      <c r="C9" t="str">
+        <v>@baimam69</v>
+      </c>
+      <c r="D9" t="str">
+        <v>CX786123489</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>شکارگاه سهند</v>
+      </c>
+      <c r="B10" t="str">
+        <v>09123456789</v>
+      </c>
+      <c r="C10" t="str">
+        <v>@Elahe_Nikseresht</v>
+      </c>
+      <c r="D10" t="str">
+        <v>CX786123456</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>بهروز ادیبان</v>
+      </c>
+      <c r="B11" t="str">
+        <v>09178324428</v>
+      </c>
+      <c r="C11" t="str">
+        <v>@baimam69</v>
+      </c>
+      <c r="D11" t="str">
+        <v>CX786124780</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>عبدلی</v>
+      </c>
+      <c r="B12" t="str">
+        <v>09123456789</v>
+      </c>
+      <c r="C12" t="str">
+        <v>@Elahe_Nikseresht</v>
+      </c>
+      <c r="D12" t="str">
+        <v>CX786123456</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>بهروز ادیبان</v>
+      </c>
+      <c r="B13" t="str">
+        <v>09178324428</v>
+      </c>
+      <c r="C13" t="str">
+        <v>@baimam69</v>
+      </c>
+      <c r="D13" t="str">
+        <v>CX786258009</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>ایلیاد</v>
+      </c>
+      <c r="B14" t="str">
+        <v>09123456789</v>
+      </c>
+      <c r="C14" t="str">
+        <v>@Iliadmnd</v>
+      </c>
+      <c r="D14" t="str">
+        <v>CX786111111</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>عبدالجاسم</v>
+      </c>
+      <c r="B15" t="str">
+        <v>09122222222</v>
+      </c>
+      <c r="C15" t="str">
+        <v>@Iliadmnd</v>
+      </c>
+      <c r="D15" t="str">
+        <v>CX786000000</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D15"/>
   </ignoredErrors>
 </worksheet>
 </file>